--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldi\PycharmProjects\OOP_Ex4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3C2E01-F7D2-475B-8591-3391337E4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDBE6B7-25FB-483F-BE01-27D7B38D6F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1790" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{99D8D1AF-02CE-4CCC-B6A6-2FE8D10834B0}"/>
+    <workbookView xWindow="11680" yWindow="2180" windowWidth="14400" windowHeight="7360" xr2:uid="{99D8D1AF-02CE-4CCC-B6A6-2FE8D10834B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0CA59C-06B2-4322-B226-047B8E280634}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,10 +837,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="4">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G15" s="5">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
